--- a/biology/Histoire de la zoologie et de la botanique/Amalie_Dietrich/Amalie_Dietrich.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Amalie_Dietrich/Amalie_Dietrich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Koncordie Amalie Dietrich (née Nelle) le 6 mai 1821 à Siebenlehn en Royaume de Saxe et morte le 9 mars 1891 à Rendsburg, est une naturaliste allemande, auteur d'une œuvre pionnière en Australie où elle passe dix ans à récolter des spécimens pour le Muséum Godeffroy de Hambourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Amalie Dietrich est née le 6 mai 1821 à Siebenlehn.
 En 1846, elle se marie avec Wilhelm August Salomo Dietrich, un médecin. Celui-ci lui apprend à récolter et à conserver des spécimens afin qu'ils puissent vivre comme naturalistes. Durant quelques années, ils constituent ainsi des collections en Europe. Leur fille Charitas, leur seule enfant, naît 1848. En 1861, Amalie découvre que son mari à une aventure et le couple se sépare. Elle revient vivre auprès de lui plus tard, avant de le quitter définitivement lorsqu'elle atteint 40 ans ; elle décide alors de gagner sa vie pour elle et sa fille.
